--- a/biology/Botanique/Peperomia_thomeana/Peperomia_thomeana.xlsx
+++ b/biology/Botanique/Peperomia_thomeana/Peperomia_thomeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peperomia thomeana C.DC. est une espèce du genre Peperomia, de la famille des Piperaceae[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peperomia thomeana C.DC. est une espèce du genre Peperomia, de la famille des Piperaceae,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique thomeana fait référence à l'île de São Tomé où elle a été observée.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une plante à fleurs, du groupe de dicotylédone, épiphyte, insidieuse, avec de racines au niveau des nodosités. Elle présente une ressemblance avec Peperomia retusa. 
-C’est une espèce native du Cameroun et de l'île de São Tomé[4]. On la retrouve dans les forêts de montagne à 1 400–2 300 m d’altitude[5]. Épiphyte ou terrestre (près des rochers), elle est évaluée comme une espèce quasi menacée (NT[6]).
+C’est une espèce native du Cameroun et de l'île de São Tomé. On la retrouve dans les forêts de montagne à 1 400–2 300 m d’altitude. Épiphyte ou terrestre (près des rochers), elle est évaluée comme une espèce quasi menacée (NT).
 Elle a été collectée en Guinée équatoriale à Bioko ; au  Cameroun : Mont Cameroun et Bamenda ; à Sao Tomé-et-Principe
 </t>
         </is>
